--- a/energy market.xlsx
+++ b/energy market.xlsx
@@ -481,7 +481,7 @@
         <v>31000</v>
       </c>
       <c r="E2" t="n">
-        <v>30825</v>
+        <v>31000</v>
       </c>
       <c r="F2" t="n">
         <v>0.067</v>

--- a/energy market.xlsx
+++ b/energy market.xlsx
@@ -1,43 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d3a24b2d0243a33/Documents/Hackathon/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_2BB1D69C5B60536FD3E6F6D25C3088B35299F2F5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5DFDE9B-5113-4969-9146-93AF6B634E65}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="3648" yWindow="1644" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Energy Type</t>
+  </si>
+  <si>
+    <t>Producers (individuals)</t>
+  </si>
+  <si>
+    <t>Companies</t>
+  </si>
+  <si>
+    <t>Sales Limit</t>
+  </si>
+  <si>
+    <t>Available Energy</t>
+  </si>
+  <si>
+    <t>Price per unit (kwh)</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily Limit </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -46,94 +87,62 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,93 +429,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Energy Type</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Producers (individuals)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Companies</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Sales Limit</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Available Energy</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Price per unit (kwh)</t>
-        </is>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Solar</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
         <v>10</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>31000</v>
       </c>
-      <c r="E2" t="n">
-        <v>30825</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.067</v>
+      <c r="E2">
+        <v>75</v>
+      </c>
+      <c r="F2">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G2">
+        <v>500.05200000000002</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Wind</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
         <v>10</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>31000</v>
       </c>
-      <c r="E3" t="n">
-        <v>30950</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.052</v>
+      <c r="E3">
+        <v>35</v>
+      </c>
+      <c r="F3">
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
   </sheetData>

--- a/energy market.xlsx
+++ b/energy market.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d3a24b2d0243a33/Documents/Hackathon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_2BB1D69C5B60536FD3E6F6D25C3088B35299F2F5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5DFDE9B-5113-4969-9146-93AF6B634E65}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2BB1D69C5BF0D28D48CD80134F3088B35299F21A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF9EF55E-113D-4C4D-BB5C-CFCB5986C45C}"/>
   <bookViews>
     <workbookView xWindow="3648" yWindow="1644" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,13 +43,13 @@
     <t>Money</t>
   </si>
   <si>
+    <t>Daily Limit</t>
+  </si>
+  <si>
     <t>Solar</t>
   </si>
   <si>
     <t>Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily Limit </t>
   </si>
 </sst>
 </file>
@@ -78,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -101,27 +101,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -139,10 +125,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -433,17 +415,10 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -467,13 +442,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -482,16 +457,16 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>31000</v>
+        <v>30860</v>
       </c>
       <c r="E2">
-        <v>75</v>
+        <v>275</v>
       </c>
       <c r="F2">
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="G2">
-        <v>500.05200000000002</v>
+        <v>501.42</v>
       </c>
       <c r="H2">
         <v>100</v>
@@ -499,7 +474,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -508,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>31000</v>
+        <v>30950</v>
       </c>
       <c r="E3">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="F3">
         <v>5.1999999999999998E-2</v>

--- a/energy market.xlsx
+++ b/energy market.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d3a24b2d0243a33/Documents/Hackathon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2BB1D69C5BF0D28D48CD80134F3088B35299F21A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF9EF55E-113D-4C4D-BB5C-CFCB5986C45C}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2BB1D69C5BF0D7EFA485F370533088B35299F26C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B95E211F-9EAD-4B9D-B87C-D13899384CB7}"/>
   <bookViews>
     <workbookView xWindow="3648" yWindow="1644" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,7 +415,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,13 +460,13 @@
         <v>30860</v>
       </c>
       <c r="E2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F2">
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="G2">
-        <v>501.42</v>
+        <v>501.41300000000012</v>
       </c>
       <c r="H2">
         <v>100</v>
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>30950</v>
+        <v>30850</v>
       </c>
       <c r="E3">
-        <v>85</v>
+        <v>280</v>
       </c>
       <c r="F3">
         <v>5.1999999999999998E-2</v>

--- a/energy market.xlsx
+++ b/energy market.xlsx
@@ -1,37 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d3a24b2d0243a33/Documents/Hackathon/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_FEE6CBC103FC5F8ACA40FAD728AC3211917C42E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C3F22E1-42CC-4D84-941B-6EB8EAE4619E}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Closed Market" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+  <si>
+    <t>Energy Type</t>
+  </si>
+  <si>
+    <t>Producers (individuals)</t>
+  </si>
+  <si>
+    <t>Companies</t>
+  </si>
+  <si>
+    <t>Sales Limit</t>
+  </si>
+  <si>
+    <t>Available Energy</t>
+  </si>
+  <si>
+    <t>Price per unit (kwh)</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Daily Limit</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +88,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,93 +412,187 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Energy Type</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Producers (individuals)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Companies</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Sales Limit</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Available Energy</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Price per unit (kwh)</t>
-        </is>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Solar</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
         <v>10</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>31000</v>
-      </c>
-      <c r="E2" t="n">
-        <v>30825</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.067</v>
+      <c r="D2">
+        <v>30855</v>
+      </c>
+      <c r="E2">
+        <v>313</v>
+      </c>
+      <c r="F2">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G2">
+        <v>499.96800000000007</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Wind</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
         <v>10</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
-        <v>31000</v>
-      </c>
-      <c r="E3" t="n">
-        <v>30950</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.052</v>
+      <c r="D3">
+        <v>30790</v>
+      </c>
+      <c r="E3">
+        <v>340</v>
+      </c>
+      <c r="F3">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>30855</v>
+      </c>
+      <c r="E2">
+        <v>313</v>
+      </c>
+      <c r="F2">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G2">
+        <v>499.96800000000007</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>30790</v>
+      </c>
+      <c r="E3">
+        <v>340</v>
+      </c>
+      <c r="F3">
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
   </sheetData>
